--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/brandili/boot-teste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/projetos7pay/workspace-prod/bot-brandili/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B9C33-CC09-DC48-AD68-1EF71311CF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96BDAE4-36AB-7641-A2F7-C36BF954A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="-660" windowWidth="20040" windowHeight="17620" xr2:uid="{2C5AC8A4-03BD-6E41-9F18-97F9694C7EE8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2C5AC8A4-03BD-6E41-9F18-97F9694C7EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
   <si>
     <t>codigo</t>
   </si>
@@ -282,6 +282,81 @@
   </si>
   <si>
     <t>(Preço pode variar de acordo com o tamanho)</t>
+  </si>
+  <si>
+    <t>CAMISA INFANTIL MENINO EM MEIA MALHA MUNDI</t>
+  </si>
+  <si>
+    <t>BLUSA INFANTIL MENINA DE COELHINHO BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA TEXTURIZADO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA FLORAL COM GLITTER</t>
+  </si>
+  <si>
+    <t>BLUSA INFANTIL MENINA DE BORBOLETA BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA DE FLAMINGO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA FLORAL BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA DE FLORES BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA FLORIDO BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA DE GATINHOS BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA DE GATINHOS BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA DE GATINHO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA CROPPED BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA COM MINI FLORES BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA DO FUNDO DO MAR BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA DE CEREJINHA BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA DE CEREJINHA BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA COM LAÇO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINA BRILHANTE BRANDILI</t>
+  </si>
+  <si>
+    <t>VESTIDO INFANTIL MENINA COM BOLSA BRANDILI</t>
+  </si>
+  <si>
+    <t>REGATA INFANTIL MENINO DE CARANGUEJO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINO DE JACARÉ BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINO TUBARÃO BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINO DE TUBARÃO BRANDILI</t>
+  </si>
+  <si>
+    <t>CAMISETA INFANTIL MENINO DE DINOSSAURO BRANDILI</t>
   </si>
 </sst>
 </file>
@@ -297,24 +372,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF727272"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,18 +411,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,2887 +762,3239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D113F9D-50DF-BF48-9DC7-F553E0549C5F}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>80158</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>26.45</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>28.93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>80196</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>26.45</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>28.93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>80161</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>30.87</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>33.76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>80159</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>33.520000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>26848</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>36.17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>39.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>26818</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>38.82</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>42.46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>26601</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>38.82</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>42.46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>26800</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>38.82</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>42.46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>26844</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>40.590000000000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>26845</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>40.590000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>26846</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>43.24</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>47.29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>26472</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>44.13</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>48.27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>80198</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>44.13</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>48.27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>26816</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>45.01</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>49.23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>26815</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>45.01</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>49.23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>26797</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>45.01</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>49.23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>26801</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>45.01</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>49.23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>26817</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>45.01</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>49.23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>26799</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>49.44</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>54.07</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>26839</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>49.44</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>54.07</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>26847</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>49.44</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>54.07</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>26849</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>49.44</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>54.07</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>26794</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>50.32</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>55.04</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>26841</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>53.85</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>26850</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>53.85</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26672</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>53.85</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>26673</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>53.85</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26674</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>53.85</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>26823</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>54.76</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="6">
         <v>59.88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>26874</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>54.76</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="6">
         <v>59.88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>26878</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>54.76</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="6">
         <v>59.88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>26840</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>55.04</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="6">
         <v>60.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>26842</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>56.51</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <v>61.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>26689</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>57.39</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>62.78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>26843</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>58.28</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>26912</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>58.28</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>26911</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>58.28</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>26678</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>58.28</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>26676</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>58.28</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>26826</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>59.18</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>26825</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>59.18</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>26864</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>59.18</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>26868</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>59.18</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>26872</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>59.18</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>26875</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>59.18</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>26930</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>59.18</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>26929</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>59.18</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>26877</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>59.18</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>26880</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>59.18</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>26471</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>61.82</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="6">
         <v>67.61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>80197</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>61.82</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="6">
         <v>67.61</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>26677</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>62.7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>68.58</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>26680</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>62.7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="6">
         <v>68.58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>26822</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>63.6</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>26809</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>63.6</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>56139</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>63.6</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>56142</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="7">
         <v>63.6</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>26893</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>63.6</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>26897</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="7">
         <v>63.6</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>26429</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>63.6</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>26643</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>63.6</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>26675</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>67.12</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="6">
         <v>73.41</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>26824</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>26932</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>26882</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>26881</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>26885</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>26886</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>26887</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>26631</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>26630</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>26642</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>26645</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>26798</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="7">
         <v>70.66</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="6">
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>26691</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="7">
         <v>70.66</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="6">
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>26694</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="7">
         <v>70.66</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="6">
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>26679</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>26913</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>26686</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>26682</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>26681</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>26827</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="7">
         <v>72.44</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>26832</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="7">
         <v>72.44</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>26820</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="7">
         <v>72.44</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>26830</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="7">
         <v>72.44</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>26802</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="7">
         <v>72.44</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>26925</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="7">
         <v>72.44</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>26933</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="7">
         <v>72.44</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>26883</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="7">
         <v>72.44</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>26888</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="7">
         <v>72.44</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>26890</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="7">
         <v>72.44</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>26891</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="7">
         <v>72.44</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>26898</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="7">
         <v>72.44</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>26628</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="7">
         <v>72.44</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>26644</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="7">
         <v>72.44</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>26641</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="7">
         <v>72.44</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>26646</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="7">
         <v>72.44</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="6">
         <v>79.22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>26941</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="7">
         <v>73.31</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="6">
         <v>80.180000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>26698</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="7">
         <v>75.08</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="6">
         <v>82.12</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>26831</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="7">
         <v>75.48</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="6">
         <v>82.55</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>26683</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="7">
         <v>75.97</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="6">
         <v>83.08</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>26829</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="7">
         <v>77.75</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>26828</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="7">
         <v>77.75</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>26835</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="7">
         <v>77.75</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>26692</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="7">
         <v>77.75</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>26690</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="7">
         <v>77.75</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>26695</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="7">
         <v>77.75</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>26696</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="7">
         <v>77.75</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>26924</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="7">
         <v>77.75</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>26889</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="7">
         <v>77.75</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>26892</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="7">
         <v>77.75</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>26495</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="7">
         <v>77.75</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>26632</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="7">
         <v>77.75</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>26648</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="7">
         <v>77.75</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>26833</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="7">
         <v>78.930000000000007</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="6">
         <v>86.32</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>26407</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="7">
         <v>78.930000000000007</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="6">
         <v>86.32</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>26807</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="7">
         <v>78.930000000000007</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="6">
         <v>86.32</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>26693</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="7">
         <v>79.510000000000005</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="6">
         <v>86.96</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>26687</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="7">
         <v>80.38</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="6">
         <v>87.92</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>26584</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="7">
         <v>80.38</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="6">
         <v>87.92</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>26684</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="7">
         <v>80.38</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="6">
         <v>87.92</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>26685</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="7">
         <v>80.38</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="6">
         <v>87.92</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>26819</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="7">
         <v>82.17</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>26836</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="7">
         <v>82.17</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>26834</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="7">
         <v>82.17</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>26806</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="7">
         <v>82.17</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>26808</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="7">
         <v>82.17</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>26795</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="7">
         <v>82.17</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>26865</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="7">
         <v>82.17</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>26866</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="7">
         <v>82.17</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>56140</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="7">
         <v>82.17</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>56141</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="7">
         <v>82.17</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>26896</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="7">
         <v>82.17</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>26634</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="7">
         <v>82.17</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>26805</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="7">
         <v>82.55</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="6">
         <v>90.29</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>26803</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="7">
         <v>86.59</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="6">
         <v>94.69</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>26804</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="7">
         <v>86.59</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="6">
         <v>94.69</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>26884</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="7">
         <v>86.59</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="6">
         <v>94.69</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>26588</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="7">
         <v>90.12</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="6">
         <v>98.57</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>26688</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="7">
         <v>90.12</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="6">
         <v>98.57</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>26811</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="7">
         <v>91</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>26871</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="7">
         <v>91</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>26869</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="7">
         <v>91</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>26927</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="7">
         <v>91</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>26926</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="7">
         <v>91</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
         <v>26873</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="7">
         <v>91</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>26649</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="7">
         <v>91</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="6">
         <v>99.53</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>26699</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="7">
         <v>97.19</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="6">
         <v>106.3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>26697</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="7">
         <v>97.19</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="6">
         <v>106.3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>26821</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="7">
         <v>99.85</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>26812</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="7">
         <v>99.85</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>26796</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="7">
         <v>99.85</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>26810</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="7">
         <v>99.85</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>26867</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="7">
         <v>99.85</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>26876</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="7">
         <v>99.85</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>26879</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="7">
         <v>99.85</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>26608</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="7">
         <v>104.44</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="6">
         <v>114.23</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>26647</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="7">
         <v>105.93</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="6">
         <v>115.86</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>26838</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="7">
         <v>118.43</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="6">
         <v>129.52000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>26837</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="7">
         <v>118.43</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="6">
         <v>129.52000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>26814</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="7">
         <v>118.43</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="6">
         <v>129.52000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
         <v>26813</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="7">
         <v>127.27</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="6">
         <v>139.19</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
         <v>26635</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="7">
         <v>127.27</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="6">
         <v>139.19</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
         <v>26943</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="7">
         <v>137</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="6">
         <v>149.83000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
         <v>26639</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="7">
         <v>137</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="6">
         <v>149.83000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
         <v>26636</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="7">
         <v>145.82</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="6">
         <v>159.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
         <v>26942</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="7">
         <v>145.82</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="6">
         <v>159.5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
         <v>26945</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="7">
         <v>154.68</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="6">
         <v>169.17</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
         <v>26640</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="7">
         <v>154.68</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="6">
         <v>169.17</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
         <v>26638</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="7">
         <v>154.68</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="6">
         <v>169.17</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>26744</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="7">
         <v>163.5</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="6">
         <v>178.84</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
         <v>26637</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="7">
         <v>182.09</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="6">
         <v>199.16</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>26824</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="7">
         <v>68.010000000000005</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="6">
         <v>74.39</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>26835</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="7">
         <v>77.75</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>26806</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="7">
         <v>82.17</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="6">
         <v>89.86</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>26809</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="7">
         <v>63.6</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="6">
         <v>69.55</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>26812</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="7">
         <v>99.85</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="6">
         <v>109.2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>26813</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="7">
         <v>127.27</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="6">
         <v>139.19</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>26842</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="7">
         <v>56.51</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="6">
         <v>61.8</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>26840</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="7">
         <v>55.04</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="6">
         <v>60.2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>26848</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="7">
         <v>36.17</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="6">
         <v>39.56</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>26850</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="7">
         <v>53.85</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>26846</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="7">
         <v>43.24</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="6">
         <v>47.29</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>26845</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="7">
         <v>40.590000000000003</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>26672</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="7">
         <v>53.85</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>26912</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="7">
         <v>58.28</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="6">
         <v>63.74</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>26679</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>26588</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="7">
         <v>90.12</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="6">
         <v>98.57</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>26687</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="7">
         <v>80.38</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="6">
         <v>87.92</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>26682</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>26681</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="7">
         <v>71.540000000000006</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="6">
         <v>78.25</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>26688</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="7">
         <v>90.12</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="6">
         <v>98.57</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>26689</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="7">
         <v>57.39</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="6">
         <v>62.78</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>26692</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="7">
         <v>77.75</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>26690</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="7">
         <v>77.75</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>26691</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="7">
         <v>70.66</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="6">
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>26693</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="7">
         <v>79.510000000000005</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="6">
         <v>86.96</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>26699</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="7">
         <v>97.19</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="6">
         <v>106.3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>26694</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="7">
         <v>70.66</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="6">
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>26695</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="7">
         <v>77.75</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>26696</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="7">
         <v>77.75</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="6">
         <v>85.02</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>26941</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="7">
         <v>73.31</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="6">
         <v>80.180000000000007</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>26698</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="7">
         <v>75.08</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="6">
         <v>82.12</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>26697</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="7">
         <v>97.19</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="6">
         <v>106.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>26780</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C206" s="7">
+        <v>109.9</v>
+      </c>
+      <c r="D206" s="6">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>26564</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C207" s="7">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="D207" s="6">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>26903</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C208" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="D208" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>26904</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="D209" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>26567</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C210" s="7">
+        <v>48.65</v>
+      </c>
+      <c r="D210" s="6">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>26580</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C211" s="7">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="D211" s="6">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>26591</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C212" s="7">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="D212" s="6">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>26587</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C213" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="D213" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>26569</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="D214" s="6">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>26571</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="D215" s="6">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>26582</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C216" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="D216" s="6">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>26574</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="D217" s="6">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>26586</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C218" s="7">
+        <v>110.55</v>
+      </c>
+      <c r="D218" s="6">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>26578</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C219" s="7">
+        <v>100.75</v>
+      </c>
+      <c r="D219" s="6">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>26570</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="D220" s="6">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>26573</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" s="7">
+        <v>64.55</v>
+      </c>
+      <c r="D221" s="6">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>26581</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" s="7">
+        <v>87.55</v>
+      </c>
+      <c r="D222" s="6">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>26590</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C223" s="7">
+        <v>119.3</v>
+      </c>
+      <c r="D223" s="6">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>26585</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C224" s="7">
+        <v>83</v>
+      </c>
+      <c r="D224" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>26579</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C225" s="7">
+        <v>100.75</v>
+      </c>
+      <c r="D225" s="6">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>26522</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C226" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="D226" s="6">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>26526</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C227" s="7">
+        <v>87.55</v>
+      </c>
+      <c r="D227" s="6">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>26532</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C228" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="D228" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>26539</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C229" s="7">
+        <v>146.75</v>
+      </c>
+      <c r="D229" s="6">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>26525</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C230" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="D230" s="6">
+        <v>49.9</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/projetos7pay/workspace-prod/bot-brandili/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96BDAE4-36AB-7641-A2F7-C36BF954A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800E373C-9666-1D46-90B0-E60E9D240F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2C5AC8A4-03BD-6E41-9F18-97F9694C7EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="109">
   <si>
     <t>codigo</t>
   </si>
@@ -357,6 +360,12 @@
   </si>
   <si>
     <t>CAMISETA INFANTIL MENINO DE DINOSSAURO BRANDILI</t>
+  </si>
+  <si>
+    <t>CAMISETA INFANTIL MENINO DE BALEIA BRANDILI</t>
+  </si>
+  <si>
+    <t>CONJUNTO INFANTIL MENINO PRAIANO BRANDILI</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +443,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D113F9D-50DF-BF48-9DC7-F553E0549C5F}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,24 +879,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>26818</v>
+        <v>26848</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7">
-        <v>38.82</v>
+        <v>36.17</v>
       </c>
       <c r="D7" s="6">
-        <v>42.46</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>26601</v>
+        <v>26818</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
         <v>38.82</v>
@@ -891,10 +907,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>26800</v>
+        <v>26601</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>38.82</v>
@@ -905,23 +921,23 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>26844</v>
+        <v>26800</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>40.590000000000003</v>
+        <v>38.82</v>
       </c>
       <c r="D10" s="6">
-        <v>44.4</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>26845</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>26844</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="7">
@@ -933,91 +949,91 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>26846</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>26845</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="7">
-        <v>43.24</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="D12" s="6">
-        <v>47.29</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>26472</v>
+        <v>26564</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C13" s="7">
-        <v>44.13</v>
+        <v>41.59</v>
       </c>
       <c r="D13" s="6">
-        <v>48.27</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>80198</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>26846</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="7">
-        <v>44.13</v>
+        <v>44.24</v>
       </c>
       <c r="D14" s="6">
-        <v>48.27</v>
+        <v>47.29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>26816</v>
+        <v>26522</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7">
-        <v>45.01</v>
+        <v>44.1</v>
       </c>
       <c r="D15" s="6">
-        <v>49.23</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>26815</v>
+        <v>26472</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>45.01</v>
+        <v>44.13</v>
       </c>
       <c r="D16" s="6">
-        <v>49.23</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>26797</v>
+        <v>80198</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>45.01</v>
+        <v>44.13</v>
       </c>
       <c r="D17" s="6">
-        <v>49.23</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>26801</v>
+        <v>26816</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>11</v>
@@ -1031,7 +1047,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>26817</v>
+        <v>26815</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
@@ -1045,2959 +1061,2961 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>26799</v>
+        <v>26797</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7">
-        <v>49.44</v>
+        <v>45.01</v>
       </c>
       <c r="D20" s="6">
-        <v>54.07</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>26839</v>
+        <v>26801</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
-        <v>49.44</v>
+        <v>45.01</v>
       </c>
       <c r="D21" s="6">
-        <v>54.07</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>26847</v>
+        <v>26817</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>49.44</v>
+        <v>45.01</v>
       </c>
       <c r="D22" s="6">
-        <v>54.07</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>26849</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>26525</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C23" s="7">
-        <v>49.44</v>
+        <v>45.9</v>
       </c>
       <c r="D23" s="6">
-        <v>54.07</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>26794</v>
+        <v>26567</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C24" s="7">
-        <v>50.32</v>
+        <v>48.65</v>
       </c>
       <c r="D24" s="6">
-        <v>55.04</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>26841</v>
+        <v>26799</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>53.85</v>
+        <v>49.44</v>
       </c>
       <c r="D25" s="6">
-        <v>58.9</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>26850</v>
+        <v>26839</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>53.85</v>
+        <v>49.44</v>
       </c>
       <c r="D26" s="6">
-        <v>58.9</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>26672</v>
+        <v>26847</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27" s="7">
-        <v>53.85</v>
+        <v>49.44</v>
       </c>
       <c r="D27" s="6">
-        <v>58.9</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>26673</v>
+        <v>26849</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7">
-        <v>53.85</v>
+        <v>49.44</v>
       </c>
       <c r="D28" s="6">
-        <v>58.9</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>26674</v>
+        <v>26794</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="7">
-        <v>53.85</v>
+        <v>50.32</v>
       </c>
       <c r="D29" s="6">
-        <v>58.9</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>26823</v>
+        <v>26524</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7">
-        <v>54.76</v>
+        <v>51.2</v>
       </c>
       <c r="D30" s="6">
-        <v>59.88</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>26874</v>
+        <v>26841</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="7">
-        <v>54.76</v>
+        <v>53.85</v>
       </c>
       <c r="D31" s="6">
-        <v>59.88</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>26878</v>
+        <v>26850</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>54.76</v>
+        <v>53.85</v>
       </c>
       <c r="D32" s="6">
-        <v>59.88</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>26840</v>
+        <v>26672</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="7">
-        <v>55.04</v>
+        <v>53.85</v>
       </c>
       <c r="D33" s="6">
-        <v>60.2</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>26842</v>
+        <v>26673</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C34" s="7">
-        <v>56.51</v>
+        <v>53.85</v>
       </c>
       <c r="D34" s="6">
-        <v>61.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>26689</v>
+        <v>26674</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>57.39</v>
+        <v>53.85</v>
       </c>
       <c r="D35" s="6">
-        <v>62.78</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>26843</v>
+        <v>26850</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7">
-        <v>58.28</v>
+        <v>53.85</v>
       </c>
       <c r="D36" s="6">
-        <v>63.74</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>26912</v>
+        <v>26672</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
-        <v>58.28</v>
+        <v>53.85</v>
       </c>
       <c r="D37" s="6">
-        <v>63.74</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>26911</v>
+        <v>26823</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38" s="7">
-        <v>58.28</v>
+        <v>54.76</v>
       </c>
       <c r="D38" s="6">
-        <v>63.74</v>
+        <v>59.88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>26678</v>
+        <v>26874</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
-        <v>58.28</v>
+        <v>54.76</v>
       </c>
       <c r="D39" s="6">
-        <v>63.74</v>
+        <v>59.88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>26676</v>
+        <v>26878</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7">
-        <v>58.28</v>
+        <v>54.76</v>
       </c>
       <c r="D40" s="6">
-        <v>63.74</v>
+        <v>59.88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>26826</v>
+        <v>26840</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>59.18</v>
+        <v>55.04</v>
       </c>
       <c r="D41" s="6">
-        <v>64.709999999999994</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>26825</v>
+        <v>26840</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7">
-        <v>59.18</v>
+        <v>55.04</v>
       </c>
       <c r="D42" s="6">
-        <v>64.709999999999994</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>26864</v>
+        <v>26842</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" s="7">
-        <v>59.18</v>
+        <v>56.51</v>
       </c>
       <c r="D43" s="6">
-        <v>64.709999999999994</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>26868</v>
+        <v>26842</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7">
-        <v>59.18</v>
+        <v>56.51</v>
       </c>
       <c r="D44" s="6">
-        <v>64.709999999999994</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>26872</v>
+        <v>26689</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="7">
-        <v>59.18</v>
+        <v>57.39</v>
       </c>
       <c r="D45" s="6">
-        <v>64.709999999999994</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>26875</v>
+        <v>26689</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C46" s="7">
-        <v>59.18</v>
+        <v>57.39</v>
       </c>
       <c r="D46" s="6">
-        <v>64.709999999999994</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>26930</v>
+        <v>26843</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="7">
-        <v>59.18</v>
+        <v>58.28</v>
       </c>
       <c r="D47" s="6">
-        <v>64.709999999999994</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>26929</v>
+        <v>26912</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" s="7">
-        <v>59.18</v>
+        <v>58.28</v>
       </c>
       <c r="D48" s="6">
-        <v>64.709999999999994</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>26877</v>
+        <v>26911</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" s="7">
-        <v>59.18</v>
+        <v>58.28</v>
       </c>
       <c r="D49" s="6">
-        <v>64.709999999999994</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>26880</v>
+        <v>26678</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50" s="7">
-        <v>59.18</v>
+        <v>58.28</v>
       </c>
       <c r="D50" s="6">
-        <v>64.709999999999994</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>26471</v>
+        <v>26676</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C51" s="7">
-        <v>61.82</v>
+        <v>58.28</v>
       </c>
       <c r="D51" s="6">
-        <v>67.61</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>80197</v>
+        <v>26912</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7">
-        <v>61.82</v>
+        <v>58.28</v>
       </c>
       <c r="D52" s="6">
-        <v>67.61</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>26677</v>
+        <v>26826</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C53" s="7">
-        <v>62.7</v>
+        <v>59.18</v>
       </c>
       <c r="D53" s="6">
-        <v>68.58</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>26680</v>
+        <v>26825</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C54" s="7">
-        <v>62.7</v>
+        <v>59.18</v>
       </c>
       <c r="D54" s="6">
-        <v>68.58</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>26822</v>
+        <v>26864</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D55" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>26809</v>
+        <v>26868</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D56" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>56139</v>
+        <v>26872</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D57" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>56142</v>
+        <v>26875</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C58" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D58" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>26893</v>
+        <v>26930</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D59" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>26897</v>
+        <v>26929</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D60" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>26429</v>
+        <v>26877</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C61" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D61" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>26643</v>
+        <v>26880</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="7">
-        <v>63.6</v>
+        <v>59.18</v>
       </c>
       <c r="D62" s="6">
-        <v>69.55</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>26675</v>
+        <v>26471</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C63" s="7">
-        <v>67.12</v>
+        <v>61.82</v>
       </c>
       <c r="D63" s="6">
-        <v>73.41</v>
+        <v>67.61</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>26824</v>
+        <v>80197</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C64" s="7">
-        <v>68.010000000000005</v>
+        <v>61.82</v>
       </c>
       <c r="D64" s="6">
-        <v>74.39</v>
+        <v>67.61</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>26932</v>
+        <v>26677</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="7">
-        <v>68.010000000000005</v>
+        <v>62.7</v>
       </c>
       <c r="D65" s="6">
-        <v>74.39</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>26882</v>
+        <v>26680</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" s="7">
-        <v>68.010000000000005</v>
+        <v>62.7</v>
       </c>
       <c r="D66" s="6">
-        <v>74.39</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>26881</v>
+        <v>26822</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C67" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D67" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>26885</v>
+        <v>26809</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C68" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D68" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>26886</v>
+        <v>56139</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C69" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D69" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>26887</v>
+        <v>56142</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C70" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D70" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>26631</v>
+        <v>26893</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C71" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D71" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>26630</v>
+        <v>26897</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C72" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D72" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>26642</v>
+        <v>26429</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C73" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D73" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>26645</v>
+        <v>26643</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="7">
-        <v>68.010000000000005</v>
+        <v>63.6</v>
       </c>
       <c r="D74" s="6">
-        <v>74.39</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>26798</v>
+        <v>26809</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7">
-        <v>70.66</v>
+        <v>63.6</v>
       </c>
       <c r="D75" s="6">
-        <v>77.290000000000006</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>26691</v>
+        <v>26573</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C76" s="7">
-        <v>70.66</v>
+        <v>64.55</v>
       </c>
       <c r="D76" s="6">
-        <v>77.290000000000006</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>26694</v>
+        <v>26675</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C77" s="7">
-        <v>70.66</v>
+        <v>67.12</v>
       </c>
       <c r="D77" s="6">
-        <v>77.290000000000006</v>
+        <v>73.41</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>26679</v>
+        <v>26824</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C78" s="7">
-        <v>71.540000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D78" s="6">
-        <v>78.25</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>26913</v>
+        <v>26932</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C79" s="7">
-        <v>71.540000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D79" s="6">
-        <v>78.25</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>26686</v>
+        <v>26882</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="7">
-        <v>71.540000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D80" s="6">
-        <v>78.25</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>26682</v>
+        <v>26881</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="7">
-        <v>71.540000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D81" s="6">
-        <v>78.25</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>26681</v>
+        <v>26885</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C82" s="7">
-        <v>71.540000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D82" s="6">
-        <v>78.25</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>26827</v>
+        <v>26886</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C83" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D83" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>26832</v>
+        <v>26887</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C84" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D84" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>26820</v>
+        <v>26631</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C85" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D85" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>26830</v>
+        <v>26630</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C86" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D86" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>26802</v>
+        <v>26642</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C87" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D87" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>26925</v>
+        <v>26645</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C88" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D88" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>26933</v>
+        <v>26824</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C89" s="7">
-        <v>72.44</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D89" s="6">
-        <v>79.22</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>26883</v>
+        <v>26798</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C90" s="7">
-        <v>72.44</v>
+        <v>70.66</v>
       </c>
       <c r="D90" s="6">
-        <v>79.22</v>
+        <v>77.290000000000006</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>26888</v>
+        <v>26691</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C91" s="7">
-        <v>72.44</v>
+        <v>70.66</v>
       </c>
       <c r="D91" s="6">
-        <v>79.22</v>
+        <v>77.290000000000006</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>26890</v>
+        <v>26694</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C92" s="7">
-        <v>72.44</v>
+        <v>70.66</v>
       </c>
       <c r="D92" s="6">
-        <v>79.22</v>
+        <v>77.290000000000006</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>26891</v>
+        <v>26691</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C93" s="7">
-        <v>72.44</v>
+        <v>70.66</v>
       </c>
       <c r="D93" s="6">
-        <v>79.22</v>
+        <v>77.290000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>26898</v>
+        <v>26694</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C94" s="7">
-        <v>72.44</v>
+        <v>70.66</v>
       </c>
       <c r="D94" s="6">
-        <v>79.22</v>
+        <v>77.290000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>26628</v>
+        <v>26679</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C95" s="7">
-        <v>72.44</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D95" s="6">
-        <v>79.22</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>26644</v>
+        <v>26913</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C96" s="7">
-        <v>72.44</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D96" s="6">
-        <v>79.22</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>26641</v>
+        <v>26686</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C97" s="7">
-        <v>72.44</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D97" s="6">
-        <v>79.22</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>26646</v>
+        <v>26682</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C98" s="7">
-        <v>72.44</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D98" s="6">
-        <v>79.22</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>26941</v>
+        <v>26681</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C99" s="7">
-        <v>73.31</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D99" s="6">
-        <v>80.180000000000007</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>26698</v>
+        <v>26679</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C100" s="7">
-        <v>75.08</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D100" s="6">
-        <v>82.12</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>26831</v>
+        <v>26682</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C101" s="7">
-        <v>75.48</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D101" s="6">
-        <v>82.55</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>26683</v>
+        <v>26681</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C102" s="7">
-        <v>75.97</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="D102" s="6">
-        <v>83.08</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>26829</v>
+        <v>26827</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C103" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D103" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>26828</v>
+        <v>26832</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C104" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D104" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>26835</v>
+        <v>26820</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C105" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D105" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>26692</v>
+        <v>26830</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C106" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D106" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>26690</v>
+        <v>26802</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C107" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D107" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>26695</v>
+        <v>26925</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C108" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D108" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>26696</v>
+        <v>26933</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C109" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D109" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>26924</v>
+        <v>26883</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C110" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D110" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>26889</v>
+        <v>26888</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D111" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>26892</v>
+        <v>26890</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C112" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D112" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>26495</v>
+        <v>26891</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D113" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>26632</v>
+        <v>26898</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C114" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D114" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>26648</v>
+        <v>26628</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C115" s="7">
-        <v>77.75</v>
+        <v>72.44</v>
       </c>
       <c r="D115" s="6">
-        <v>85.02</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>26833</v>
+        <v>26644</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C116" s="7">
-        <v>78.930000000000007</v>
+        <v>72.44</v>
       </c>
       <c r="D116" s="6">
-        <v>86.32</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>26407</v>
+        <v>26641</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C117" s="7">
-        <v>78.930000000000007</v>
+        <v>72.44</v>
       </c>
       <c r="D117" s="6">
-        <v>86.32</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>26807</v>
+        <v>26646</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C118" s="7">
-        <v>78.930000000000007</v>
+        <v>72.44</v>
       </c>
       <c r="D118" s="6">
-        <v>86.32</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>26693</v>
+        <v>26569</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C119" s="7">
-        <v>79.510000000000005</v>
+        <v>73.3</v>
       </c>
       <c r="D119" s="6">
-        <v>86.96</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>26687</v>
+        <v>26571</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C120" s="7">
-        <v>80.38</v>
+        <v>73.3</v>
       </c>
       <c r="D120" s="6">
-        <v>87.92</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>26584</v>
+        <v>26582</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C121" s="7">
-        <v>80.38</v>
+        <v>73.3</v>
       </c>
       <c r="D121" s="6">
-        <v>87.92</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>26684</v>
+        <v>26574</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C122" s="7">
-        <v>80.38</v>
+        <v>73.3</v>
       </c>
       <c r="D122" s="6">
-        <v>87.92</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>26685</v>
+        <v>26570</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C123" s="7">
-        <v>80.38</v>
+        <v>73.3</v>
       </c>
       <c r="D123" s="6">
-        <v>87.92</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>26819</v>
+        <v>26941</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C124" s="7">
-        <v>82.17</v>
+        <v>73.31</v>
       </c>
       <c r="D124" s="6">
-        <v>89.86</v>
+        <v>80.180000000000007</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>26836</v>
+        <v>26941</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C125" s="7">
-        <v>82.17</v>
+        <v>73.31</v>
       </c>
       <c r="D125" s="6">
-        <v>89.86</v>
+        <v>80.180000000000007</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>26834</v>
+        <v>26698</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C126" s="7">
-        <v>82.17</v>
+        <v>75.08</v>
       </c>
       <c r="D126" s="6">
-        <v>89.86</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>26806</v>
+        <v>26698</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C127" s="7">
-        <v>82.17</v>
+        <v>75.08</v>
       </c>
       <c r="D127" s="6">
-        <v>89.86</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>26808</v>
+        <v>26831</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C128" s="7">
-        <v>82.17</v>
+        <v>75.48</v>
       </c>
       <c r="D128" s="6">
-        <v>89.86</v>
+        <v>82.55</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>26795</v>
+        <v>26683</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C129" s="7">
-        <v>82.17</v>
+        <v>75.97</v>
       </c>
       <c r="D129" s="6">
-        <v>89.86</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>26865</v>
+        <v>26829</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C130" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D130" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>26866</v>
+        <v>26828</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C131" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D131" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>56140</v>
+        <v>26835</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C132" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D132" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>56141</v>
+        <v>26692</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C133" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D133" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>26896</v>
+        <v>26690</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C134" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D134" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>26634</v>
+        <v>26695</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C135" s="7">
-        <v>82.17</v>
+        <v>77.75</v>
       </c>
       <c r="D135" s="6">
-        <v>89.86</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>26805</v>
+        <v>26696</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C136" s="7">
-        <v>82.55</v>
+        <v>77.75</v>
       </c>
       <c r="D136" s="6">
-        <v>90.29</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>26803</v>
+        <v>26924</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C137" s="7">
-        <v>86.59</v>
+        <v>77.75</v>
       </c>
       <c r="D137" s="6">
-        <v>94.69</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>26804</v>
+        <v>26889</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C138" s="7">
-        <v>86.59</v>
+        <v>77.75</v>
       </c>
       <c r="D138" s="6">
-        <v>94.69</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>26884</v>
+        <v>26892</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C139" s="7">
-        <v>86.59</v>
+        <v>77.75</v>
       </c>
       <c r="D139" s="6">
-        <v>94.69</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>26588</v>
+        <v>26495</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C140" s="7">
-        <v>90.12</v>
+        <v>77.75</v>
       </c>
       <c r="D140" s="6">
-        <v>98.57</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>26688</v>
+        <v>26632</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C141" s="7">
-        <v>90.12</v>
+        <v>77.75</v>
       </c>
       <c r="D141" s="6">
-        <v>98.57</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>26811</v>
+        <v>26648</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C142" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D142" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>26871</v>
+        <v>26835</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C143" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D143" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>26869</v>
+        <v>26692</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C144" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D144" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>26927</v>
+        <v>26690</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C145" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D145" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>26926</v>
+        <v>26695</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C146" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D146" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>26873</v>
+        <v>26696</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C147" s="7">
-        <v>91</v>
+        <v>77.75</v>
       </c>
       <c r="D147" s="6">
-        <v>99.53</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>26649</v>
+        <v>26580</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C148" s="7">
-        <v>91</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="D148" s="6">
-        <v>99.53</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>26699</v>
+        <v>26833</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C149" s="7">
-        <v>97.19</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="D149" s="6">
-        <v>106.3</v>
+        <v>86.32</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>26697</v>
+        <v>26407</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C150" s="7">
-        <v>97.19</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="D150" s="6">
-        <v>106.3</v>
+        <v>86.32</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>26821</v>
+        <v>26807</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C151" s="7">
-        <v>99.85</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="D151" s="6">
-        <v>109.2</v>
+        <v>86.32</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>26812</v>
+        <v>26693</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C152" s="7">
-        <v>99.85</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="D152" s="6">
-        <v>109.2</v>
+        <v>86.96</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>26796</v>
+        <v>26693</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C153" s="7">
-        <v>99.85</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="D153" s="6">
-        <v>109.2</v>
+        <v>86.96</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>26810</v>
+        <v>26687</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C154" s="7">
-        <v>99.85</v>
+        <v>80.38</v>
       </c>
       <c r="D154" s="6">
-        <v>109.2</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>26867</v>
+        <v>26584</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C155" s="7">
-        <v>99.85</v>
+        <v>80.38</v>
       </c>
       <c r="D155" s="6">
-        <v>109.2</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>26876</v>
+        <v>26684</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="7">
-        <v>99.85</v>
+        <v>80.38</v>
       </c>
       <c r="D156" s="6">
-        <v>109.2</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>26879</v>
+        <v>26685</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="7">
-        <v>99.85</v>
+        <v>80.38</v>
       </c>
       <c r="D157" s="6">
-        <v>109.2</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>26608</v>
+        <v>26687</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C158" s="7">
-        <v>104.44</v>
+        <v>80.38</v>
       </c>
       <c r="D158" s="6">
-        <v>114.23</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>26647</v>
+        <v>26819</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C159" s="7">
-        <v>105.93</v>
+        <v>82.17</v>
       </c>
       <c r="D159" s="6">
-        <v>115.86</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>26838</v>
+        <v>26836</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C160" s="7">
-        <v>118.43</v>
+        <v>82.17</v>
       </c>
       <c r="D160" s="6">
-        <v>129.52000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>26837</v>
+        <v>26834</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C161" s="7">
-        <v>118.43</v>
+        <v>82.17</v>
       </c>
       <c r="D161" s="6">
-        <v>129.52000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>26814</v>
+        <v>26806</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C162" s="7">
-        <v>118.43</v>
+        <v>82.17</v>
       </c>
       <c r="D162" s="6">
-        <v>129.52000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>26813</v>
+        <v>26808</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C163" s="7">
-        <v>127.27</v>
+        <v>82.17</v>
       </c>
       <c r="D163" s="6">
-        <v>139.19</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>26635</v>
+        <v>26795</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C164" s="7">
-        <v>127.27</v>
+        <v>82.17</v>
       </c>
       <c r="D164" s="6">
-        <v>139.19</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>26943</v>
+        <v>26865</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C165" s="7">
-        <v>137</v>
+        <v>82.17</v>
       </c>
       <c r="D165" s="6">
-        <v>149.83000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>26639</v>
+        <v>26866</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C166" s="7">
-        <v>137</v>
+        <v>82.17</v>
       </c>
       <c r="D166" s="6">
-        <v>149.83000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>26636</v>
+        <v>56140</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C167" s="7">
-        <v>145.82</v>
+        <v>82.17</v>
       </c>
       <c r="D167" s="6">
-        <v>159.5</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>26942</v>
+        <v>56141</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C168" s="7">
-        <v>145.82</v>
+        <v>82.17</v>
       </c>
       <c r="D168" s="6">
-        <v>159.5</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>26945</v>
+        <v>26896</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C169" s="7">
-        <v>154.68</v>
+        <v>82.17</v>
       </c>
       <c r="D169" s="6">
-        <v>169.17</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>26640</v>
+        <v>26634</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C170" s="7">
-        <v>154.68</v>
+        <v>82.17</v>
       </c>
       <c r="D170" s="6">
-        <v>169.17</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>26638</v>
+        <v>26806</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C171" s="7">
-        <v>154.68</v>
+        <v>82.17</v>
       </c>
       <c r="D171" s="6">
-        <v>169.17</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>26744</v>
+        <v>26805</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C172" s="7">
-        <v>163.5</v>
+        <v>82.55</v>
       </c>
       <c r="D172" s="6">
-        <v>178.84</v>
+        <v>90.29</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>26637</v>
+        <v>26585</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C173" s="7">
-        <v>182.09</v>
+        <v>83</v>
       </c>
       <c r="D173" s="6">
-        <v>199.16</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>26824</v>
+        <v>26803</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C174" s="7">
-        <v>68.010000000000005</v>
+        <v>86.59</v>
       </c>
       <c r="D174" s="6">
-        <v>74.39</v>
+        <v>94.69</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>26835</v>
+        <v>26804</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C175" s="7">
-        <v>77.75</v>
+        <v>86.59</v>
       </c>
       <c r="D175" s="6">
-        <v>85.02</v>
+        <v>94.69</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>26806</v>
+        <v>26884</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C176" s="7">
-        <v>82.17</v>
+        <v>86.59</v>
       </c>
       <c r="D176" s="6">
-        <v>89.86</v>
+        <v>94.69</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>26809</v>
+        <v>26581</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C177" s="7">
-        <v>63.6</v>
+        <v>87.55</v>
       </c>
       <c r="D177" s="6">
-        <v>69.55</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>26812</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>71</v>
+        <v>26526</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C178" s="7">
-        <v>99.85</v>
+        <v>87.55</v>
       </c>
       <c r="D178" s="6">
-        <v>109.2</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>26813</v>
+        <v>26588</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C179" s="7">
-        <v>127.27</v>
+        <v>90.12</v>
       </c>
       <c r="D179" s="6">
-        <v>139.19</v>
+        <v>98.57</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>26842</v>
+        <v>26688</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C180" s="7">
-        <v>56.51</v>
+        <v>90.12</v>
       </c>
       <c r="D180" s="6">
-        <v>61.8</v>
+        <v>98.57</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>26840</v>
+        <v>26588</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C181" s="7">
-        <v>55.04</v>
+        <v>90.12</v>
       </c>
       <c r="D181" s="6">
-        <v>60.2</v>
+        <v>98.57</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>26848</v>
+        <v>26688</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C182" s="7">
-        <v>36.17</v>
+        <v>90.12</v>
       </c>
       <c r="D182" s="6">
-        <v>39.56</v>
+        <v>98.57</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>26850</v>
+        <v>26811</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C183" s="7">
-        <v>53.85</v>
+        <v>91</v>
       </c>
       <c r="D183" s="6">
-        <v>58.9</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>26846</v>
+        <v>26871</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C184" s="7">
-        <v>43.24</v>
+        <v>91</v>
       </c>
       <c r="D184" s="6">
-        <v>47.29</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>26845</v>
+        <v>26869</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C185" s="7">
-        <v>40.590000000000003</v>
+        <v>91</v>
       </c>
       <c r="D185" s="6">
-        <v>44.4</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>26672</v>
+        <v>26927</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C186" s="7">
-        <v>53.85</v>
+        <v>91</v>
       </c>
       <c r="D186" s="6">
-        <v>58.9</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>26912</v>
+        <v>26926</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C187" s="7">
-        <v>58.28</v>
+        <v>91</v>
       </c>
       <c r="D187" s="6">
-        <v>63.74</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>26679</v>
+        <v>26873</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C188" s="7">
-        <v>71.540000000000006</v>
+        <v>91</v>
       </c>
       <c r="D188" s="6">
-        <v>78.25</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>26588</v>
+        <v>26649</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C189" s="7">
-        <v>90.12</v>
+        <v>91</v>
       </c>
       <c r="D189" s="6">
-        <v>98.57</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>26687</v>
+        <v>26903</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C190" s="7">
-        <v>80.38</v>
+        <v>91.9</v>
       </c>
       <c r="D190" s="6">
-        <v>87.92</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>26682</v>
+        <v>26904</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C191" s="7">
-        <v>71.540000000000006</v>
+        <v>91.9</v>
       </c>
       <c r="D191" s="6">
-        <v>78.25</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>26681</v>
+        <v>26587</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C192" s="7">
-        <v>71.540000000000006</v>
+        <v>91.9</v>
       </c>
       <c r="D192" s="6">
-        <v>78.25</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>26688</v>
+        <v>26532</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C193" s="7">
-        <v>90.12</v>
+        <v>91.9</v>
       </c>
       <c r="D193" s="6">
-        <v>98.57</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>26689</v>
+        <v>26699</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C194" s="7">
-        <v>57.39</v>
+        <v>97.19</v>
       </c>
       <c r="D194" s="6">
-        <v>62.78</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>26692</v>
+        <v>26697</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C195" s="7">
-        <v>77.75</v>
+        <v>97.19</v>
       </c>
       <c r="D195" s="6">
-        <v>85.02</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>26690</v>
+        <v>26699</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C196" s="7">
-        <v>77.75</v>
+        <v>97.19</v>
       </c>
       <c r="D196" s="6">
-        <v>85.02</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>26691</v>
+        <v>26697</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C197" s="7">
-        <v>70.66</v>
+        <v>97.19</v>
       </c>
       <c r="D197" s="6">
-        <v>77.290000000000006</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>26693</v>
+        <v>26821</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C198" s="7">
-        <v>79.510000000000005</v>
+        <v>99.85</v>
       </c>
       <c r="D198" s="6">
-        <v>86.96</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>26699</v>
+        <v>26812</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C199" s="7">
-        <v>97.19</v>
+        <v>99.85</v>
       </c>
       <c r="D199" s="6">
-        <v>106.3</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>26694</v>
+        <v>26796</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C200" s="7">
-        <v>70.66</v>
+        <v>99.85</v>
       </c>
       <c r="D200" s="6">
-        <v>77.290000000000006</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>26695</v>
+        <v>26810</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C201" s="7">
-        <v>77.75</v>
+        <v>99.85</v>
       </c>
       <c r="D201" s="6">
-        <v>85.02</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>26696</v>
+        <v>26867</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C202" s="7">
-        <v>77.75</v>
+        <v>99.85</v>
       </c>
       <c r="D202" s="6">
-        <v>85.02</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>26941</v>
+        <v>26876</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C203" s="7">
-        <v>73.31</v>
+        <v>99.85</v>
       </c>
       <c r="D203" s="6">
-        <v>80.180000000000007</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>26698</v>
+        <v>26879</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C204" s="7">
-        <v>75.08</v>
+        <v>99.85</v>
       </c>
       <c r="D204" s="6">
-        <v>82.12</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>26697</v>
+        <v>26812</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C205" s="7">
-        <v>97.19</v>
+        <v>99.85</v>
       </c>
       <c r="D205" s="6">
-        <v>106.3</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>26780</v>
+        <v>26578</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C206" s="7">
-        <v>109.9</v>
+        <v>100.75</v>
       </c>
       <c r="D206" s="6">
-        <v>129.9</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>26564</v>
+        <v>26579</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C207" s="7">
-        <v>40.590000000000003</v>
+        <v>100.75</v>
       </c>
       <c r="D207" s="6">
-        <v>44.9</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>26903</v>
+        <v>26608</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C208" s="7">
-        <v>91.9</v>
+        <v>104.44</v>
       </c>
       <c r="D208" s="6">
-        <v>99.9</v>
+        <v>114.23</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>26904</v>
+        <v>26647</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C209" s="7">
-        <v>91.9</v>
+        <v>105.93</v>
       </c>
       <c r="D209" s="6">
-        <v>99.9</v>
+        <v>115.86</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>26567</v>
+        <v>26780</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C210" s="7">
-        <v>48.65</v>
+        <v>109.9</v>
       </c>
       <c r="D210" s="6">
-        <v>49.9</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>26580</v>
+        <v>26586</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C211" s="7">
-        <v>78.650000000000006</v>
+        <v>110.55</v>
       </c>
       <c r="D211" s="6">
-        <v>79.900000000000006</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>26591</v>
+        <v>26838</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C212" s="7">
-        <v>128.19999999999999</v>
+        <v>118.43</v>
       </c>
       <c r="D212" s="6">
-        <v>144.9</v>
+        <v>129.52000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>26587</v>
+        <v>26837</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C213" s="7">
-        <v>91.9</v>
+        <v>118.43</v>
       </c>
       <c r="D213" s="6">
-        <v>99.9</v>
+        <v>129.52000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>26569</v>
+        <v>26814</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C214" s="7">
-        <v>73.3</v>
+        <v>118.43</v>
       </c>
       <c r="D214" s="6">
-        <v>89.9</v>
+        <v>129.52000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>26571</v>
+        <v>26590</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C215" s="7">
-        <v>73.3</v>
+        <v>119.3</v>
       </c>
       <c r="D215" s="6">
-        <v>89.9</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>26582</v>
+        <v>26813</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C216" s="7">
-        <v>73.3</v>
+        <v>127.27</v>
       </c>
       <c r="D216" s="6">
-        <v>89.9</v>
+        <v>139.19</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>26574</v>
+        <v>26635</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C217" s="7">
-        <v>73.3</v>
+        <v>127.27</v>
       </c>
       <c r="D217" s="6">
-        <v>89.9</v>
+        <v>139.19</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>26586</v>
+        <v>26813</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C218" s="7">
-        <v>110.55</v>
+        <v>127.27</v>
       </c>
       <c r="D218" s="6">
-        <v>119.9</v>
+        <v>139.19</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>26578</v>
+        <v>26591</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C219" s="7">
-        <v>100.75</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D219" s="6">
-        <v>119.9</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>26570</v>
+        <v>26943</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C220" s="7">
-        <v>73.3</v>
+        <v>137</v>
       </c>
       <c r="D220" s="6">
-        <v>79.900000000000006</v>
+        <v>149.83000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>26573</v>
+        <v>26639</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C221" s="7">
-        <v>64.55</v>
+        <v>137</v>
       </c>
       <c r="D221" s="6">
-        <v>69.900000000000006</v>
+        <v>149.83000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>26581</v>
+        <v>26636</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C222" s="7">
-        <v>87.55</v>
+        <v>145.82</v>
       </c>
       <c r="D222" s="6">
-        <v>94.9</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>26590</v>
+        <v>26942</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C223" s="7">
-        <v>119.3</v>
+        <v>145.82</v>
       </c>
       <c r="D223" s="6">
-        <v>129.9</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>26585</v>
+        <v>26539</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C224" s="7">
-        <v>83</v>
+        <v>146.75</v>
       </c>
       <c r="D224" s="6">
-        <v>99.9</v>
+        <v>159.9</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>26579</v>
+        <v>26945</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C225" s="7">
-        <v>100.75</v>
+        <v>154.68</v>
       </c>
       <c r="D225" s="6">
-        <v>119.9</v>
+        <v>169.17</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>26522</v>
+        <v>26640</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C226" s="7">
-        <v>44.1</v>
+        <v>154.68</v>
       </c>
       <c r="D226" s="6">
-        <v>49.9</v>
+        <v>169.17</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>26526</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>103</v>
+        <v>26638</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C227" s="7">
-        <v>87.55</v>
+        <v>154.68</v>
       </c>
       <c r="D227" s="6">
-        <v>94.9</v>
+        <v>169.17</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>26532</v>
+        <v>26744</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C228" s="7">
-        <v>91.9</v>
+        <v>163.5</v>
       </c>
       <c r="D228" s="6">
-        <v>99.9</v>
+        <v>178.84</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>26539</v>
+        <v>26637</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C229" s="7">
-        <v>146.75</v>
+        <v>182.09</v>
       </c>
       <c r="D229" s="6">
-        <v>159.9</v>
+        <v>199.16</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>26525</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C230" s="7">
-        <v>45.9</v>
+        <v>26529</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D230" s="6">
-        <v>49.9</v>
+        <v>89.9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{6D113F9D-50DF-BF48-9DC7-F553E0549C5F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D232">
+      <sortCondition ref="C1:C232"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>